--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\hackathon\git\umsikmenu\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2E92C7-269A-4D46-9011-8B85BAF95C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="sample1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Korean" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Japanese" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="English" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Cantonese" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Chinese" sheetId="6" r:id="rId9"/>
+    <sheet name="sample1" sheetId="1" r:id="rId1"/>
+    <sheet name="Korean" sheetId="2" r:id="rId2"/>
+    <sheet name="Japanese" sheetId="3" r:id="rId3"/>
+    <sheet name="English" sheetId="4" r:id="rId4"/>
+    <sheet name="Cantonese" sheetId="5" r:id="rId5"/>
+    <sheet name="Chinese" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="687">
   <si>
     <t>Category</t>
   </si>
@@ -546,21 +555,12 @@
     <t>タニシを入れた香ばしいジャージャー麺</t>
   </si>
   <si>
-    <t>淡水魚、豚肉</t>
-  </si>
-  <si>
-    <t>タニシ、ジャージャー、豚肉</t>
-  </si>
-  <si>
     <t>タニシチャンポン</t>
   </si>
   <si>
     <t>ピリ辛スープにタニシを加えた特別な味</t>
   </si>
   <si>
-    <t>タニシ、チャンポン、豚肉</t>
-  </si>
-  <si>
     <t>タニシジャージャー麺（2人前）</t>
   </si>
   <si>
@@ -582,42 +582,24 @@
     <t>豚肉</t>
   </si>
   <si>
-    <t>ジャージャー、豚肉</t>
-  </si>
-  <si>
     <t>三鮮乾ジャージャー麺</t>
   </si>
   <si>
     <t>海鮮と豚肉がたっぷり入った乾ジャージャー麺</t>
   </si>
   <si>
-    <t>海鮮、豚肉</t>
-  </si>
-  <si>
-    <t>海鮮、乾ジャージャー、豚肉</t>
-  </si>
-  <si>
     <t>チャンポン</t>
   </si>
   <si>
     <t>ピリ辛スープと様々な海鮮が入ったチャンポン</t>
   </si>
   <si>
-    <t>海鮮、チャンポン、豚肉</t>
-  </si>
-  <si>
     <t>牛バラチャンポン</t>
   </si>
   <si>
     <t>牛バラ肉と海鮮が調和した深い味わいのチャンポン</t>
   </si>
   <si>
-    <t>牛肉、海鮮</t>
-  </si>
-  <si>
-    <t>牛バラ肉、チャンポン、豚肉</t>
-  </si>
-  <si>
     <t>三鮮チャンポン</t>
   </si>
   <si>
@@ -630,9 +612,6 @@
     <t>様々な海鮮が入ったうどん</t>
   </si>
   <si>
-    <t>海鮮、うどん、豚肉</t>
-  </si>
-  <si>
     <t>ジャージャー麺（2人前）</t>
   </si>
   <si>
@@ -651,12 +630,6 @@
     <t>カリッと揚げた餃子8個</t>
   </si>
   <si>
-    <t>小麦粉、豚肉</t>
-  </si>
-  <si>
-    <t>餃子皮（小麦）、豚肉</t>
-  </si>
-  <si>
     <t>飯類</t>
   </si>
   <si>
@@ -666,18 +639,12 @@
     <t>基本の豚肉炒飯</t>
   </si>
   <si>
-    <t>炒飯、豚肉</t>
-  </si>
-  <si>
     <t>エビ炒飯</t>
   </si>
   <si>
     <t>エビがたっぷり入った炒飯</t>
   </si>
   <si>
-    <t>エビ、炒飯、豚肉</t>
-  </si>
-  <si>
     <t>チャンポン飯</t>
   </si>
   <si>
@@ -702,27 +669,18 @@
     <t>チャプチェとご飯が一緒になった一皿</t>
   </si>
   <si>
-    <t>チャプチェ、豚肉</t>
-  </si>
-  <si>
     <t>中華ビビンバ</t>
   </si>
   <si>
     <t>中華スタイルのビビンバ</t>
   </si>
   <si>
-    <t>ビビンバ、豚肉</t>
-  </si>
-  <si>
     <t>八宝菜飯</t>
   </si>
   <si>
     <t>様々な海鮮と肉を添えた八宝菜飯</t>
   </si>
   <si>
-    <t>海鮮、八宝菜、豚肉</t>
-  </si>
-  <si>
     <t>ジャージャー飯</t>
   </si>
   <si>
@@ -738,9 +696,6 @@
     <t>カリッと揚げた衣と甘いソースが絶妙な酢豚</t>
   </si>
   <si>
-    <t>豚肉、揚げ物</t>
-  </si>
-  <si>
     <t>酢豚（中）</t>
   </si>
   <si>
@@ -753,12 +708,6 @@
     <t>もち米を使ったもちもち食感の酢豚（小）</t>
   </si>
   <si>
-    <t>豚肉、もち米</t>
-  </si>
-  <si>
-    <t>豚肉、もち米、揚げ物</t>
-  </si>
-  <si>
     <t>もち米酢豚（中）</t>
   </si>
   <si>
@@ -777,57 +726,36 @@
     <t>豚肉と海鮮が調和した扬州料理</t>
   </si>
   <si>
-    <t>豚肉、海鮮</t>
-  </si>
-  <si>
-    <t>扬州料理、豚肉、海鮮</t>
-  </si>
-  <si>
     <t>八宝菜</t>
   </si>
   <si>
     <t>豚肉と海鮮がたっぷり入った八宝菜</t>
   </si>
   <si>
-    <t>八宝菜、豚肉、海鮮</t>
-  </si>
-  <si>
     <t>柳参舌</t>
   </si>
   <si>
     <t>豚肉と海鮮がたっぷり入った柳参舌</t>
   </si>
   <si>
-    <t>柳参舌、豚肉、海鮮</t>
-  </si>
-  <si>
     <t>青椒肉絲</t>
   </si>
   <si>
     <t>ピリ辛の青椒肉絲</t>
   </si>
   <si>
-    <t>青椒肉絲、豚肉</t>
-  </si>
-  <si>
     <t>干焼エビ</t>
   </si>
   <si>
     <t>ピリ辛でカリッとした干焼エビ</t>
   </si>
   <si>
-    <t>エビ、干焼、豚肉</t>
-  </si>
-  <si>
     <t>甘酢エビ</t>
   </si>
   <si>
     <t>甘酸っぱい甘酢エビ</t>
   </si>
   <si>
-    <t>エビ、甘酢、豚肉</t>
-  </si>
-  <si>
     <t>干焼鶏</t>
   </si>
   <si>
@@ -837,9 +765,6 @@
     <t>鶏肉</t>
   </si>
   <si>
-    <t>鶏肉、干焼</t>
-  </si>
-  <si>
     <t>季節料理</t>
   </si>
   <si>
@@ -849,12 +774,6 @@
     <t>ひんやりとしたスープで楽しむ冷うどん</t>
   </si>
   <si>
-    <t>小麦粉、海鮮</t>
-  </si>
-  <si>
-    <t>冷うどん、海鮮</t>
-  </si>
-  <si>
     <t>豆乳麺</t>
   </si>
   <si>
@@ -864,9 +783,6 @@
     <t>豆</t>
   </si>
   <si>
-    <t>豆、麺</t>
-  </si>
-  <si>
     <t>セットメニュー</t>
   </si>
   <si>
@@ -876,27 +792,15 @@
     <t>酢豚とジャージャー麺二つのセット</t>
   </si>
   <si>
-    <t>酢豚、ジャージャー、豚肉</t>
-  </si>
-  <si>
     <t>酢豚+ジャージャー+チャンポン</t>
   </si>
   <si>
-    <t>酢豚とジャージャー麺、チャンポン一つのセット</t>
-  </si>
-  <si>
-    <t>酢豚、ジャージャー、チャンポン</t>
-  </si>
-  <si>
     <t>酢豚+チャンポン+チャンポン</t>
   </si>
   <si>
     <t>酢豚とチャンポン二つのセット</t>
   </si>
   <si>
-    <t>酢豚、チャンポン</t>
-  </si>
-  <si>
     <t>白ご飯</t>
   </si>
   <si>
@@ -921,9 +825,6 @@
     <t>辛味追加オプション</t>
   </si>
   <si>
-    <t>唐辛子、調味料</t>
-  </si>
-  <si>
     <t>Dasulgi Jajang</t>
   </si>
   <si>
@@ -2080,31 +1981,139 @@
   </si>
   <si>
     <t>辣椒, 调味料</t>
+  </si>
+  <si>
+    <t>淡水魚, 豚肉</t>
+  </si>
+  <si>
+    <t>タニシ, ジャージャー, 豚肉</t>
+  </si>
+  <si>
+    <t>タニシ, チャンポン, 豚肉</t>
+  </si>
+  <si>
+    <t>ジャージャー, 豚肉</t>
+  </si>
+  <si>
+    <t>海鮮, 豚肉</t>
+  </si>
+  <si>
+    <t>海鮮, 乾ジャージャー, 豚肉</t>
+  </si>
+  <si>
+    <t>海鮮, チャンポン, 豚肉</t>
+  </si>
+  <si>
+    <t>牛バラ肉, チャンポン, 豚肉</t>
+  </si>
+  <si>
+    <t>海鮮, うどん, 豚肉</t>
+  </si>
+  <si>
+    <t>小麦粉, 豚肉</t>
+  </si>
+  <si>
+    <t>餃子皮（小麦）, 豚肉</t>
+  </si>
+  <si>
+    <t>炒飯, 豚肉</t>
+  </si>
+  <si>
+    <t>エビ, 炒飯, 豚肉</t>
+  </si>
+  <si>
+    <t>チャプチェ, 豚肉</t>
+  </si>
+  <si>
+    <t>ビビンバ, 豚肉</t>
+  </si>
+  <si>
+    <t>海鮮, 八宝菜, 豚肉</t>
+  </si>
+  <si>
+    <t>豚肉, 揚げ物</t>
+  </si>
+  <si>
+    <t>豚肉, もち米</t>
+  </si>
+  <si>
+    <t>豚肉, もち米, 揚げ物</t>
+  </si>
+  <si>
+    <t>豚肉, 海鮮</t>
+  </si>
+  <si>
+    <t>扬州料理, 豚肉, 海鮮</t>
+  </si>
+  <si>
+    <t>八宝菜, 豚肉, 海鮮</t>
+  </si>
+  <si>
+    <t>柳参舌, 豚肉, 海鮮</t>
+  </si>
+  <si>
+    <t>青椒肉絲, 豚肉</t>
+  </si>
+  <si>
+    <t>エビ, 干焼, 豚肉</t>
+  </si>
+  <si>
+    <t>エビ, 甘酢, 豚肉</t>
+  </si>
+  <si>
+    <t>鶏肉, 干焼</t>
+  </si>
+  <si>
+    <t>小麦粉, 海鮮</t>
+  </si>
+  <si>
+    <t>冷うどん, 海鮮</t>
+  </si>
+  <si>
+    <t>豆, 麺</t>
+  </si>
+  <si>
+    <t>酢豚, ジャージャー, 豚肉</t>
+  </si>
+  <si>
+    <t>酢豚とジャージャー麺, チャンポン一つのセット</t>
+  </si>
+  <si>
+    <t>酢豚, ジャージャー, チャンポン</t>
+  </si>
+  <si>
+    <t>酢豚, チャンポン</t>
+  </si>
+  <si>
+    <t>唐辛子, 調味料</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -2114,68 +2123,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2365,20 +2355,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2398,7 +2391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2415,7 +2408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2432,7 +2425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2447,7 +2440,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -2464,7 +2457,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2479,7 +2472,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -2496,7 +2489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2511,7 +2504,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -2528,7 +2521,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -2544,21 +2537,22 @@
       <c r="E10" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2578,7 +2572,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -2589,7 +2583,7 @@
         <v>46</v>
       </c>
       <c r="D2" s="5">
-        <v>11000.0</v>
+        <v>11000</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>47</v>
@@ -2598,7 +2592,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -2609,7 +2603,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="5">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>47</v>
@@ -2618,7 +2612,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -2629,7 +2623,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="5">
-        <v>24000.0</v>
+        <v>24000</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>47</v>
@@ -2638,7 +2632,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -2649,7 +2643,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="5">
-        <v>35000.0</v>
+        <v>35000</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>47</v>
@@ -2658,7 +2652,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
@@ -2669,7 +2663,7 @@
         <v>57</v>
       </c>
       <c r="D6" s="5">
-        <v>8000.0</v>
+        <v>8000</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>58</v>
@@ -2678,7 +2672,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
@@ -2689,7 +2683,7 @@
         <v>61</v>
       </c>
       <c r="D7" s="5">
-        <v>11000.0</v>
+        <v>11000</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>62</v>
@@ -2698,7 +2692,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -2709,7 +2703,7 @@
         <v>65</v>
       </c>
       <c r="D8" s="5">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>62</v>
@@ -2718,7 +2712,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -2729,7 +2723,7 @@
         <v>68</v>
       </c>
       <c r="D9" s="5">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>69</v>
@@ -2738,7 +2732,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
@@ -2749,7 +2743,7 @@
         <v>72</v>
       </c>
       <c r="D10" s="5">
-        <v>11000.0</v>
+        <v>11000</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>62</v>
@@ -2758,7 +2752,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
@@ -2769,7 +2763,7 @@
         <v>74</v>
       </c>
       <c r="D11" s="5">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>62</v>
@@ -2778,7 +2772,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -2789,7 +2783,7 @@
         <v>77</v>
       </c>
       <c r="D12" s="5">
-        <v>26000.0</v>
+        <v>26000</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>58</v>
@@ -2798,7 +2792,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -2809,7 +2803,7 @@
         <v>79</v>
       </c>
       <c r="D13" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>58</v>
@@ -2818,7 +2812,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -2829,7 +2823,7 @@
         <v>81</v>
       </c>
       <c r="D14" s="5">
-        <v>6000.0</v>
+        <v>6000</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>82</v>
@@ -2838,7 +2832,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>84</v>
       </c>
@@ -2849,7 +2843,7 @@
         <v>86</v>
       </c>
       <c r="D15" s="5">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>58</v>
@@ -2858,7 +2852,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>84</v>
       </c>
@@ -2869,7 +2863,7 @@
         <v>89</v>
       </c>
       <c r="D16" s="5">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>62</v>
@@ -2878,7 +2872,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
@@ -2889,7 +2883,7 @@
         <v>92</v>
       </c>
       <c r="D17" s="5">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>62</v>
@@ -2898,7 +2892,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -2909,7 +2903,7 @@
         <v>94</v>
       </c>
       <c r="D18" s="5">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>62</v>
@@ -2918,7 +2912,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>84</v>
       </c>
@@ -2929,7 +2923,7 @@
         <v>96</v>
       </c>
       <c r="D19" s="5">
-        <v>14000.0</v>
+        <v>14000</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -2938,7 +2932,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>84</v>
       </c>
@@ -2949,7 +2943,7 @@
         <v>98</v>
       </c>
       <c r="D20" s="5">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>58</v>
@@ -2958,7 +2952,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>84</v>
       </c>
@@ -2969,7 +2963,7 @@
         <v>101</v>
       </c>
       <c r="D21" s="5">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>58</v>
@@ -2978,7 +2972,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>84</v>
       </c>
@@ -2989,7 +2983,7 @@
         <v>104</v>
       </c>
       <c r="D22" s="5">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>62</v>
@@ -2998,7 +2992,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
@@ -3009,7 +3003,7 @@
         <v>107</v>
       </c>
       <c r="D23" s="5">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -3018,7 +3012,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>108</v>
       </c>
@@ -3029,7 +3023,7 @@
         <v>110</v>
       </c>
       <c r="D24" s="5">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>58</v>
@@ -3038,7 +3032,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>108</v>
       </c>
@@ -3049,7 +3043,7 @@
         <v>110</v>
       </c>
       <c r="D25" s="5">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>58</v>
@@ -3058,7 +3052,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>108</v>
       </c>
@@ -3069,7 +3063,7 @@
         <v>110</v>
       </c>
       <c r="D26" s="5">
-        <v>40000.0</v>
+        <v>40000</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>58</v>
@@ -3078,7 +3072,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>108</v>
       </c>
@@ -3089,7 +3083,7 @@
         <v>115</v>
       </c>
       <c r="D27" s="5">
-        <v>35000.0</v>
+        <v>35000</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>116</v>
@@ -3098,7 +3092,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>108</v>
       </c>
@@ -3109,7 +3103,7 @@
         <v>119</v>
       </c>
       <c r="D28" s="5">
-        <v>35000.0</v>
+        <v>35000</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>116</v>
@@ -3118,7 +3112,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>108</v>
       </c>
@@ -3129,7 +3123,7 @@
         <v>121</v>
       </c>
       <c r="D29" s="5">
-        <v>45000.0</v>
+        <v>45000</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>116</v>
@@ -3138,7 +3132,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>108</v>
       </c>
@@ -3149,7 +3143,7 @@
         <v>123</v>
       </c>
       <c r="D30" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>124</v>
@@ -3158,7 +3152,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>108</v>
       </c>
@@ -3169,7 +3163,7 @@
         <v>127</v>
       </c>
       <c r="D31" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>124</v>
@@ -3178,7 +3172,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>108</v>
       </c>
@@ -3189,7 +3183,7 @@
         <v>130</v>
       </c>
       <c r="D32" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>124</v>
@@ -3198,7 +3192,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>108</v>
       </c>
@@ -3209,7 +3203,7 @@
         <v>133</v>
       </c>
       <c r="D33" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>58</v>
@@ -3218,7 +3212,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>108</v>
       </c>
@@ -3229,7 +3223,7 @@
         <v>136</v>
       </c>
       <c r="D34" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>62</v>
@@ -3238,7 +3232,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>108</v>
       </c>
@@ -3249,7 +3243,7 @@
         <v>139</v>
       </c>
       <c r="D35" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>62</v>
@@ -3258,7 +3252,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>108</v>
       </c>
@@ -3269,7 +3263,7 @@
         <v>142</v>
       </c>
       <c r="D36" s="5">
-        <v>45000.0</v>
+        <v>45000</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>143</v>
@@ -3278,7 +3272,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>145</v>
       </c>
@@ -3289,7 +3283,7 @@
         <v>147</v>
       </c>
       <c r="D37" s="5">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>148</v>
@@ -3298,7 +3292,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>145</v>
       </c>
@@ -3309,7 +3303,7 @@
         <v>151</v>
       </c>
       <c r="D38" s="5">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>152</v>
@@ -3318,7 +3312,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>154</v>
       </c>
@@ -3329,7 +3323,7 @@
         <v>156</v>
       </c>
       <c r="D39" s="5">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>58</v>
@@ -3338,7 +3332,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>154</v>
       </c>
@@ -3349,7 +3343,7 @@
         <v>159</v>
       </c>
       <c r="D40" s="5">
-        <v>31000.0</v>
+        <v>31000</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>124</v>
@@ -3358,7 +3352,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>154</v>
       </c>
@@ -3369,7 +3363,7 @@
         <v>162</v>
       </c>
       <c r="D41" s="5">
-        <v>32000.0</v>
+        <v>32000</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>124</v>
@@ -3378,7 +3372,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -3389,7 +3383,7 @@
         <v>165</v>
       </c>
       <c r="D42" s="5">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>166</v>
@@ -3398,7 +3392,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -3409,7 +3403,7 @@
         <v>169</v>
       </c>
       <c r="D43" s="5">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>166</v>
@@ -3418,7 +3412,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>84</v>
       </c>
@@ -3429,7 +3423,7 @@
         <v>171</v>
       </c>
       <c r="D44" s="5">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>166</v>
@@ -3439,21 +3433,24 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3473,7 +3470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>173</v>
       </c>
@@ -3484,871 +3481,872 @@
         <v>175</v>
       </c>
       <c r="D2" s="5">
-        <v>11000.0</v>
+        <v>11000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>176</v>
+        <v>652</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D3" s="5">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>176</v>
+        <v>652</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D4" s="5">
-        <v>24000.0</v>
+        <v>24000</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>176</v>
+        <v>652</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D5" s="5">
-        <v>35000.0</v>
+        <v>35000</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>176</v>
+        <v>652</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D6" s="5">
-        <v>8000.0</v>
+        <v>8000</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D7" s="5">
-        <v>11000.0</v>
+        <v>11000</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>191</v>
+        <v>656</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D8" s="5">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>191</v>
+        <v>656</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D9" s="5">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>198</v>
+        <v>420</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D10" s="5">
-        <v>11000.0</v>
+        <v>11000</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>191</v>
+        <v>656</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D11" s="5">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>191</v>
+        <v>656</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D12" s="5">
-        <v>26000.0</v>
+        <v>26000</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D13" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="5">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D18" s="5">
+        <v>13000</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D14" s="5">
-        <v>6000.0</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="D19" s="5">
+        <v>14000</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D20" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="5">
-        <v>9000.0</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="D21" s="5">
+        <v>12000</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D22" s="5">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D16" s="5">
-        <v>10000.0</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="D23" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="5">
-        <v>10000.0</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D24" s="5">
+        <v>20000</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D18" s="5">
-        <v>13000.0</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" s="5">
+        <v>30000</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D26" s="5">
+        <v>40000</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D19" s="5">
-        <v>14000.0</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D27" s="5">
+        <v>35000</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D20" s="5">
-        <v>10000.0</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="D28" s="5">
+        <v>35000</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D21" s="5">
-        <v>12000.0</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="D29" s="5">
+        <v>45000</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D30" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D22" s="5">
-        <v>20000.0</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="D31" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D23" s="5">
-        <v>9000.0</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="D32" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D33" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D24" s="5">
-        <v>20000.0</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="D34" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" s="5">
-        <v>30000.0</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D26" s="5">
-        <v>40000.0</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="D35" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D27" s="5">
-        <v>35000.0</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D36" s="5">
+        <v>45000</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F36" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D28" s="5">
-        <v>35000.0</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="D37" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D29" s="5">
-        <v>45000.0</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="D38" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="F38" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D30" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="D39" s="5">
+        <v>30000</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D40" s="5">
+        <v>31000</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D31" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="D41" s="5">
+        <v>32000</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D32" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="D42" s="5">
+        <v>1500</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C33" s="2" t="s">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D33" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="D43" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D34" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D35" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D36" s="5">
-        <v>45000.0</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D37" s="5">
-        <v>9000.0</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D38" s="5">
-        <v>9000.0</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D39" s="5">
-        <v>30000.0</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D40" s="5">
-        <v>31000.0</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D41" s="5">
-        <v>32000.0</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1500.0</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D43" s="5">
-        <v>2000.0</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="D44" s="5">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>301</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4368,884 +4366,885 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="D2" s="5">
-        <v>11000.0</v>
+        <v>11000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="D3" s="5">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="D4" s="5">
-        <v>24000.0</v>
+        <v>24000</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="D5" s="5">
-        <v>35000.0</v>
+        <v>35000</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="D6" s="5">
-        <v>8000.0</v>
+        <v>8000</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="D7" s="5">
-        <v>11000.0</v>
+        <v>11000</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="D8" s="5">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="D9" s="5">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="D10" s="5">
-        <v>11000.0</v>
+        <v>11000</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="D11" s="5">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="D12" s="5">
-        <v>26000.0</v>
+        <v>26000</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="D13" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="D14" s="5">
-        <v>6000.0</v>
+        <v>6000</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="D15" s="5">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="D16" s="5">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="D17" s="5">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="D18" s="5">
-        <v>13000.0</v>
+        <v>13000</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="D19" s="5">
-        <v>14000.0</v>
+        <v>14000</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="D20" s="5">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="D21" s="5">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="D22" s="5">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="D23" s="5">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="D24" s="5">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="D25" s="5">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="D26" s="5">
-        <v>40000.0</v>
+        <v>40000</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="D27" s="5">
-        <v>35000.0</v>
+        <v>35000</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="D28" s="5">
-        <v>35000.0</v>
+        <v>35000</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="D29" s="5">
-        <v>45000.0</v>
+        <v>45000</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="D30" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="D31" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="D32" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="D33" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D34" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D35" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D34" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D35" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="D36" s="5">
-        <v>45000.0</v>
+        <v>45000</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="D37" s="5">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="D38" s="5">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="D39" s="5">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="D40" s="5">
-        <v>31000.0</v>
+        <v>31000</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="41">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="D41" s="5">
-        <v>32000.0</v>
+        <v>32000</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="D42" s="5">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="D43" s="5">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="D44" s="5">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5265,882 +5264,883 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" s="5">
+        <v>11000</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D3" s="5">
+        <v>13000</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D4" s="5">
+        <v>24000</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="5">
+        <v>35000</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8000</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" s="5">
+        <v>11000</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D9" s="5">
+        <v>13000</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D10" s="5">
+        <v>11000</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D11" s="5">
+        <v>13000</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D12" s="5">
+        <v>26000</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D13" s="5">
+        <v>36000</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D2" s="5">
-        <v>11000.0</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D14" s="5">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D15" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D3" s="5">
-        <v>13000.0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D16" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="D4" s="5">
-        <v>24000.0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D5" s="5">
-        <v>35000.0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="D17" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="D6" s="5">
-        <v>8000.0</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="D18" s="5">
+        <v>13000</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D7" s="5">
-        <v>11000.0</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D19" s="5">
+        <v>14000</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F7" s="2" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D20" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D8" s="5">
-        <v>9000.0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F8" s="2" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D21" s="5">
+        <v>12000</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D9" s="5">
-        <v>13000.0</v>
-      </c>
-      <c r="E9" s="2" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="D22" s="5">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D10" s="5">
-        <v>11000.0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="D23" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D11" s="5">
-        <v>13000.0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="D24" s="5">
+        <v>20000</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D12" s="5">
-        <v>26000.0</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D25" s="5">
+        <v>30000</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D13" s="5">
-        <v>36000.0</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D26" s="5">
+        <v>40000</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D14" s="5">
-        <v>6000.0</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="D27" s="5">
+        <v>35000</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D15" s="5">
-        <v>9000.0</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F15" s="2" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D28" s="5">
+        <v>35000</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D16" s="5">
-        <v>10000.0</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="D29" s="5">
+        <v>45000</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D17" s="5">
-        <v>10000.0</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="D30" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D18" s="5">
-        <v>13000.0</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="D31" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C19" s="2" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D19" s="5">
-        <v>14000.0</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="D32" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C20" s="2" t="s">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D20" s="5">
-        <v>10000.0</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="D33" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C21" s="2" t="s">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="D21" s="5">
-        <v>12000.0</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="D34" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C22" s="2" t="s">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D22" s="5">
-        <v>20000.0</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="D35" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D23" s="5">
-        <v>9000.0</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D36" s="5">
+        <v>45000</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D24" s="5">
-        <v>20000.0</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F24" s="2" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D25" s="5">
-        <v>30000.0</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="D37" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D26" s="5">
-        <v>40000.0</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D27" s="5">
-        <v>35000.0</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D38" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="F27" s="2" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D28" s="5">
-        <v>35000.0</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="D39" s="5">
+        <v>30000</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D29" s="5">
-        <v>45000.0</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D40" s="5">
+        <v>31000</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="D30" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="D41" s="5">
+        <v>32000</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C31" s="2" t="s">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="D31" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="D42" s="5">
+        <v>1500</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D32" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="D43" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="D33" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="D44" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D34" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="D35" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="D36" s="5">
-        <v>45000.0</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="D37" s="5">
-        <v>9000.0</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="D38" s="5">
-        <v>9000.0</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="D39" s="5">
-        <v>30000.0</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D40" s="5">
-        <v>31000.0</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D41" s="5">
-        <v>32000.0</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1500.0</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="D43" s="5">
-        <v>2000.0</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D44" s="5">
-        <v>1000.0</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6160,867 +6160,867 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D2" s="5">
+        <v>11000</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D3" s="5">
+        <v>13000</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D4" s="5">
+        <v>24000</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D5" s="5">
+        <v>35000</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8000</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D7" s="5">
+        <v>11000</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D8" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D9" s="5">
+        <v>13000</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D10" s="5">
+        <v>11000</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D11" s="5">
+        <v>13000</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D12" s="5">
+        <v>26000</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D13" s="5">
+        <v>36000</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D14" s="5">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D2" s="5">
-        <v>11000.0</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D3" s="5">
-        <v>13000.0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="D15" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D4" s="5">
-        <v>24000.0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D16" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="D5" s="5">
-        <v>35000.0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D17" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D6" s="5">
-        <v>8000.0</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="D18" s="5">
+        <v>13000</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D19" s="5">
+        <v>14000</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="D7" s="5">
-        <v>11000.0</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="D20" s="5">
+        <v>10000</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="D8" s="5">
-        <v>9000.0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="D21" s="5">
+        <v>12000</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="D9" s="5">
-        <v>13000.0</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D22" s="5">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="F9" s="2" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D23" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D10" s="5">
-        <v>11000.0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="D11" s="5">
-        <v>13000.0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="D24" s="5">
+        <v>20000</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D12" s="5">
-        <v>26000.0</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="D25" s="5">
+        <v>30000</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="D13" s="5">
-        <v>36000.0</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="D26" s="5">
+        <v>40000</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D14" s="5">
-        <v>6000.0</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D27" s="5">
+        <v>35000</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D28" s="5">
+        <v>35000</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="D15" s="5">
-        <v>9000.0</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="D29" s="5">
+        <v>45000</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D16" s="5">
-        <v>10000.0</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="D30" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="D17" s="5">
-        <v>10000.0</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="D31" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="D18" s="5">
-        <v>13000.0</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D32" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="D19" s="5">
-        <v>14000.0</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="D20" s="5">
-        <v>10000.0</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="D33" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="D21" s="5">
-        <v>12000.0</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="D34" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D35" s="5">
+        <v>50000</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="D22" s="5">
-        <v>20000.0</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="D36" s="5">
+        <v>45000</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="D23" s="5">
-        <v>9000.0</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="D24" s="5">
-        <v>20000.0</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="D37" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="F37" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="D25" s="5">
-        <v>30000.0</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D38" s="5">
+        <v>9000</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="D26" s="5">
-        <v>40000.0</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C27" s="2" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D27" s="5">
-        <v>35000.0</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="D39" s="5">
+        <v>30000</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B28" s="2" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="D28" s="5">
-        <v>35000.0</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="D40" s="5">
+        <v>31000</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C29" s="2" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D29" s="5">
-        <v>45000.0</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D41" s="5">
+        <v>32000</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="D30" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E30" s="2" t="s">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="D42" s="5">
+        <v>1500</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D31" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D43" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="D32" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="D44" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="D33" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="D34" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="D35" s="5">
-        <v>50000.0</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D36" s="5">
-        <v>45000.0</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="D37" s="5">
-        <v>9000.0</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="D38" s="5">
-        <v>9000.0</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="D39" s="5">
-        <v>30000.0</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D40" s="5">
-        <v>31000.0</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="D41" s="5">
-        <v>32000.0</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1500.0</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="D43" s="5">
-        <v>2000.0</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="D44" s="5">
-        <v>1000.0</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>687</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>